--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8246,15 +8247,470 @@
           <t>4317</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.29%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4487</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.55%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.40%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4557</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4657</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4746</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8262,15 +8718,14 @@
           <t>4323</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8280,15 +8735,14 @@
           <t>4328</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8298,29 +8752,12 @@
           <t>4334</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.16%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8328,15 +8765,14 @@
           <t>4339</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8346,15 +8782,14 @@
           <t>4351</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8364,27 +8799,14 @@
           <t>4458</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8394,27 +8816,14 @@
           <t>4459</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8426,13 +8835,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8440,27 +8842,14 @@
           <t>4475</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.48%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8470,27 +8859,14 @@
           <t>4487</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>8</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.55%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8500,15 +8876,14 @@
           <t>4488</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8518,29 +8893,12 @@
           <t>4491</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8548,27 +8906,14 @@
           <t>4550</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8578,15 +8923,14 @@
           <t>4557</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -8596,29 +8940,12 @@
           <t>4559</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8628,13 +8955,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8642,15 +8962,14 @@
           <t>4657</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8660,27 +8979,14 @@
           <t>4698</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -8690,17 +8996,12 @@
           <t>4746</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>10</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4339,7 +4338,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8247,6 +8246,10 @@
           <t>4317</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8262,6 +8265,9 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8277,6 +8283,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8322,6 +8331,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8337,6 +8349,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8409,6 +8424,10 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8484,6 +8503,9 @@
       <c r="B13" t="n">
         <v>9</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8559,6 +8581,9 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8601,6 +8626,10 @@
           <t>4656</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8616,6 +8645,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8661,347 +8693,14 @@
       <c r="B21" t="n">
         <v>10</v>
       </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4310</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_4339.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>10/07/2015</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>19/08/2015</t>
@@ -755,6 +756,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>26/08/2015</t>
@@ -802,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>11/10/2015</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>25/10/2015</t>
@@ -1104,6 +1108,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>09/02/2016</t>
@@ -1203,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>14/02/2016</t>
@@ -1406,6 +1412,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>15/06/2016</t>
@@ -1453,6 +1460,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -1552,6 +1560,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>25/09/2016</t>
@@ -1599,6 +1608,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>30/09/2016</t>
@@ -1646,6 +1656,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>02/10/2016</t>
@@ -1693,6 +1704,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>05/10/2016</t>
@@ -1792,6 +1804,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>28/01/2017</t>
@@ -1839,6 +1852,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>01/02/2017</t>
@@ -1886,6 +1900,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>04/02/2017</t>
@@ -1933,6 +1948,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>07/02/2017</t>
@@ -1980,6 +1996,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>10/02/2017</t>
@@ -2027,6 +2044,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>19/02/2017</t>
@@ -2074,6 +2092,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>25/02/2017</t>
@@ -2121,6 +2140,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -2168,6 +2188,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>04/03/2017</t>
@@ -2267,6 +2288,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>27/05/2017</t>
@@ -2314,6 +2336,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>29/05/2017</t>
@@ -2361,6 +2384,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>03/06/2017</t>
@@ -2512,6 +2536,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -2559,6 +2584,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>18/10/2017</t>
@@ -2814,6 +2840,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>10/02/2018</t>
@@ -2913,6 +2940,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>29/07/2018</t>
@@ -2960,6 +2988,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>01/08/2018</t>
@@ -3007,6 +3036,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>05/08/2018</t>
@@ -3106,6 +3136,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>30/09/2018</t>
@@ -3153,6 +3184,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>06/10/2018</t>
@@ -3200,6 +3232,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>04/11/2018</t>
@@ -3299,6 +3332,7 @@
           <t>57</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -3346,6 +3380,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -3393,6 +3428,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>22/01/2019</t>
@@ -3440,6 +3476,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>25/01/2019</t>
@@ -3539,6 +3576,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>30/01/2019</t>
@@ -3586,6 +3624,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>03/03/2019</t>
@@ -3685,6 +3724,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -3732,6 +3772,7 @@
           <t>66</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>16/03/2019</t>
@@ -3935,6 +3976,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -3982,6 +4024,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -4029,6 +4072,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -4128,6 +4172,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>28/06/2019</t>
@@ -4175,6 +4220,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>06/07/2019</t>
@@ -4326,6 +4372,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -4477,6 +4524,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>04/09/2021</t>
@@ -4628,6 +4676,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>20/03/2022</t>
@@ -4727,6 +4776,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>06/10/2022</t>
@@ -4774,6 +4824,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>09/10/2022</t>
@@ -4873,6 +4924,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>31/03/2023</t>
@@ -8192,517 +8244,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.16%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.29%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.48%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4487</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.55%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4488</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4491</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6.40%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4557</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4559</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.60%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4656</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4657</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.67%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4746</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>